--- a/biology/Médecine/Henry_Charlton_Bastian/Henry_Charlton_Bastian.xlsx
+++ b/biology/Médecine/Henry_Charlton_Bastian/Henry_Charlton_Bastian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Charlton Bastian, né le 26 avril 1837 à Truro en Cornouailles et mort le 17 novembre 1915 à Chesham Bois, Buckinghamshire, est un physiologiste et neurologue anglais. Il fut élu membre de la Royal Society en 1868.
 </t>
@@ -511,7 +523,9 @@
           <t>Résumé biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bastian obtint son titre en 1861  à l'université de Londres. Il fut ensuite médecin et chargé de cours en pathologie au St Mary's Hospital de Londres.
 En biologie, il se fit le défenseur de la doctrine de l'abiogénèse ou génération spontanée. Il étudia dans sa jeunesse la filaire de Médine et d'autres nématodes, mais dut mettre un terme à ses travaux en raison  d'une allergie mystérieuse qu'il développa vis-à-vis de ces animaux. Son esprit analytique et la rigueur de son raisonnement l'attirèrent ensuite vers la neurologie clinique, une discipline à laquelle il dédia le reste de sa carrière.
@@ -544,7 +558,9 @@
           <t>Ses travaux principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Monograph of the Anguillulidae (1865)
 The Beginnings of Life: being some account of the nature, modes of origin and transformation of lower organisms, I–II (1872)
